--- a/bom_partlist/sigma_mix_bom.xlsx
+++ b/bom_partlist/sigma_mix_bom.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shun\Desktop\CurrentProjects\SigmaMIX\bom_partlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="303">
   <si>
     <t>Part</t>
   </si>
@@ -114,21 +114,6 @@
     <t>C29</t>
   </si>
   <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
     <t>C34</t>
   </si>
   <si>
@@ -396,12 +381,6 @@
     <t>R27</t>
   </si>
   <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
     <t>R30</t>
   </si>
   <si>
@@ -498,15 +477,9 @@
     <t>U6</t>
   </si>
   <si>
-    <t>X1</t>
-  </si>
-  <si>
     <t>12.288MHz</t>
   </si>
   <si>
-    <t>X2</t>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -539,14 +512,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ceramic capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ceramic capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>multilayer ceramic capacitor</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -640,10 +605,6 @@
   </si>
   <si>
     <t>SMD</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Xtal Oscillator</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -814,10 +775,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>535-10902-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>ZXTP25040DFHCT-ND</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -914,10 +871,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>P100HCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>P1.00KHCT-ND</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1042,14 +995,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>490-3608-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>490-3608-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>490-1615-1-ND</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1075,6 +1020,70 @@
   </si>
   <si>
     <t>2x10 (for SWD)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Y1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">490-1683-6-ND </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>multilayer ceramic capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>multilayer ceramic capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0.1uF</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0.1uF</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>multilayer ceramic capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">490-1683-6-ND </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1608</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P0.0ACT-ND</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2106,11 +2115,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D142"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2133,10 +2142,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2144,19 +2153,19 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2164,19 +2173,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>164</v>
+        <v>295</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2184,16 +2193,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>2012</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>283</v>
@@ -2204,19 +2213,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>2012</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2224,19 +2233,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>2012</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2244,7 +2253,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -2253,10 +2262,10 @@
         <v>2012</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2264,7 +2273,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -2273,10 +2282,10 @@
         <v>2012</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2284,19 +2293,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>2012</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2304,19 +2313,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>2012</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2324,19 +2333,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
         <v>2012</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2344,7 +2353,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -2353,10 +2362,10 @@
         <v>2012</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2364,7 +2373,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -2373,10 +2382,10 @@
         <v>2012</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2384,7 +2393,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -2393,10 +2402,10 @@
         <v>2012</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2404,7 +2413,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -2413,10 +2422,10 @@
         <v>2012</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2424,19 +2433,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
         <v>2012</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2444,19 +2453,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>2012</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2464,7 +2473,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -2473,10 +2482,10 @@
         <v>2012</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2484,7 +2493,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -2493,10 +2502,10 @@
         <v>2012</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2504,19 +2513,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
         <v>2012</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2524,19 +2533,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
         <v>2012</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2544,16 +2553,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2">
         <v>2012</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>283</v>
@@ -2564,19 +2573,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
         <v>2012</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2584,7 +2593,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
@@ -2593,10 +2602,10 @@
         <v>2012</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2604,7 +2613,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
@@ -2613,10 +2622,10 @@
         <v>2012</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2624,19 +2633,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
         <v>2012</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2644,19 +2653,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
         <v>2012</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2664,19 +2673,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
         <v>2012</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2684,19 +2693,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
         <v>2012</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2704,19 +2713,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
         <v>2012</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2724,19 +2733,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2">
         <v>2012</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2744,19 +2753,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2">
         <v>2012</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2764,19 +2773,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
         <v>2012</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2784,19 +2793,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2">
         <v>2012</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2804,19 +2813,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2">
         <v>2012</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2824,19 +2833,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2">
         <v>2012</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2844,19 +2853,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2">
         <v>2012</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2864,19 +2873,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2">
         <v>2012</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2884,19 +2893,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C39" s="2">
         <v>2012</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2904,19 +2913,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="2">
         <v>2012</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2924,19 +2933,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41" s="2">
         <v>2012</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2944,19 +2953,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C42" s="2">
         <v>2012</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2964,19 +2973,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43" s="2">
         <v>2012</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2984,19 +2993,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44" s="2">
         <v>2012</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -3004,19 +3013,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45" s="2">
         <v>2012</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -3024,19 +3033,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C46" s="2">
         <v>2012</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -3044,19 +3053,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2">
         <v>2012</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -3064,19 +3073,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2">
         <v>2012</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -3084,19 +3093,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" s="2">
         <v>2012</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -3104,19 +3113,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2">
-        <v>2012</v>
+        <v>3528</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -3124,19 +3133,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2">
-        <v>2012</v>
+        <v>3528</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -3144,19 +3153,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2">
         <v>3528</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3164,19 +3173,19 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2">
         <v>3528</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -3184,19 +3193,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2">
         <v>3528</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -3204,19 +3213,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2">
         <v>3528</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3224,10 +3233,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2">
         <v>3528</v>
@@ -3236,7 +3245,7 @@
         <v>163</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -3244,19 +3253,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2">
         <v>3528</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -3264,19 +3273,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2">
-        <v>3528</v>
+        <v>2012</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -3284,19 +3293,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2">
-        <v>3528</v>
+        <v>2012</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -3304,19 +3313,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2">
         <v>2012</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3324,19 +3333,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C61" s="2">
         <v>2012</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -3344,19 +3353,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C62" s="2">
         <v>2012</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -3364,19 +3373,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C63" s="2">
         <v>2012</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -3384,19 +3393,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C64" s="2">
         <v>2012</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -3404,19 +3413,19 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C65" s="2">
         <v>2012</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -3424,19 +3433,19 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="2">
-        <v>2012</v>
+        <v>92</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3444,19 +3453,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="2">
-        <v>2012</v>
+        <v>94</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -3464,19 +3473,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>300</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -3484,19 +3493,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -3504,19 +3513,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -3524,19 +3533,19 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -3544,19 +3553,19 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -3564,19 +3573,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -3584,19 +3593,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -3604,19 +3613,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -3624,19 +3633,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -3644,19 +3653,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -3664,19 +3673,19 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -3684,19 +3693,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -3704,19 +3713,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -3724,19 +3733,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -3744,19 +3753,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -3764,19 +3773,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -3784,19 +3793,19 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -3804,19 +3813,19 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -3824,19 +3833,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -3844,19 +3853,19 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -3864,19 +3873,19 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -3884,19 +3893,19 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="B89" s="2">
+        <v>475</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -3904,19 +3913,19 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2">
-        <v>100</v>
+        <v>475</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -3924,19 +3933,19 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" s="2">
-        <v>100</v>
+        <v>121</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -3944,19 +3953,19 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" s="2">
-        <v>475</v>
+        <v>123</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -3964,19 +3973,19 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B93" s="2">
-        <v>475</v>
+        <v>124</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -3984,19 +3993,19 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -4004,19 +4013,19 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -4024,19 +4033,19 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -4044,19 +4053,19 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -4064,19 +4073,19 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -4084,19 +4093,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -4104,19 +4113,19 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -4124,19 +4133,19 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -4144,19 +4153,19 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -4164,19 +4173,19 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -4184,19 +4193,19 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -4204,19 +4213,19 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -4224,19 +4233,19 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -4244,19 +4253,19 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -4264,19 +4273,19 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -4284,19 +4293,19 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -4304,19 +4313,19 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -4324,19 +4333,19 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -4344,19 +4353,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -4364,19 +4373,17 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>189</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D113" s="7"/>
       <c r="E113" s="2" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -4384,19 +4391,19 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -4404,19 +4411,19 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -4424,19 +4431,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -4444,19 +4451,19 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -4464,19 +4471,19 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D118" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -4484,19 +4491,19 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="D119" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>240</v>
+        <v>199</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -4504,19 +4511,19 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -4524,19 +4531,19 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -4544,19 +4551,19 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -4564,19 +4571,19 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>235</v>
+        <v>207</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -4584,19 +4591,19 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -4604,19 +4611,19 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -4624,19 +4631,19 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -4644,19 +4651,19 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -4664,19 +4671,19 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>250</v>
+        <v>213</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -4684,19 +4691,19 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>251</v>
+        <v>213</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -4704,19 +4711,19 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>252</v>
+        <v>213</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -4724,19 +4731,19 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>250</v>
+        <v>214</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -4744,19 +4751,19 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>235</v>
+        <v>213</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -4764,19 +4771,19 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>235</v>
+        <v>213</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -4784,19 +4791,19 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -4804,19 +4811,19 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>235</v>
+        <v>222</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -4824,19 +4831,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>302</v>
+        <v>216</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -4844,127 +4851,47 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A138" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>235</v>
+      <c r="A138" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A139" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A140" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A141" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A142" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1:E142">
+  <conditionalFormatting sqref="A1:E138">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/bom_partlist/sigma_mix_bom.xlsx
+++ b/bom_partlist/sigma_mix_bom.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shun\eagle\FXF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shun\Desktop\CurrentProjects\SigmaMIX\SigmaMIX_Hardware\bom_partlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="partslist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="287">
   <si>
     <t>Part</t>
   </si>
@@ -567,10 +567,6 @@
   </si>
   <si>
     <t>SMD</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>535-10902-1-ND</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -694,293 +690,305 @@
     <t>CP-1420-ND</t>
   </si>
   <si>
+    <t>CP-1419-ND</t>
+  </si>
+  <si>
+    <t>Audio Connector</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Audio Connector</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Through Hole</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2x5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2x6</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2x6</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Pin Header</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>BGM113</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LGA Module</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DC_JACK</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Power Connector</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Bluetooth Module</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>336-3817-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GREEN</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RED</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>67-1002-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>67-1003-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>600ohm@100MHz</t>
+  </si>
+  <si>
+    <t>490-14396-1-ND</t>
+  </si>
+  <si>
+    <t>490-14396-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ferrite Beads</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ferrite Beads</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1608</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1608</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1608</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1608</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P49.9KHCT-ND</t>
+  </si>
+  <si>
+    <t>P56.2HCT-ND</t>
+  </si>
+  <si>
+    <t>P49.9KHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P10.0KHCT-ND</t>
+  </si>
+  <si>
+    <t>P18.0KHCT-ND</t>
+  </si>
+  <si>
+    <t>P1.00KHCT-ND</t>
+  </si>
+  <si>
+    <t>P0.0ACT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P100KHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P475HCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P49.9KHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P8.06KHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P8.06KHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P475HCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P562HCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Resistor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Resistor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Resistor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">490-1683-6-ND </t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">490-1662-1-ND </t>
+  </si>
+  <si>
+    <t>490-1615-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399-1153-1-ND </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>490-3905-1-ND</t>
+  </si>
+  <si>
+    <t>490-3905-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>490-3905-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>490-3905-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>718-1313-1-ND</t>
+  </si>
+  <si>
+    <t>Tantalum Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tantalum Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tantalum Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3528</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3528</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3528</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>478-8115-1-ND</t>
+  </si>
+  <si>
+    <t>478-8115-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tantalum Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tantalum Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">490-1691-1-ND </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>CP-1420-ND</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>CP-1419-ND</t>
-  </si>
-  <si>
-    <t>Audio Connector</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Audio Connector</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Through Hole</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2x5</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2x6</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2x6</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Pin Header</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>BGM113</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LGA Module</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>DC_JACK</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Power Connector</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Bluetooth Module</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>336-3817-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>GREEN</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>RED</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>67-1002-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>67-1003-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>600ohm@100MHz</t>
-  </si>
-  <si>
-    <t>490-14396-1-ND</t>
-  </si>
-  <si>
-    <t>490-14396-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Ferrite Beads</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Ferrite Beads</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1608</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1608</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1608</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1608</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2012</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2012</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2012</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P49.9KHCT-ND</t>
-  </si>
-  <si>
-    <t>P56.2HCT-ND</t>
-  </si>
-  <si>
-    <t>P49.9KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P10.0KHCT-ND</t>
-  </si>
-  <si>
-    <t>P18.0KHCT-ND</t>
-  </si>
-  <si>
-    <t>P1.00KHCT-ND</t>
-  </si>
-  <si>
-    <t>P0.0ACT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P100KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P475HCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P49.9KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P8.06KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P8.06KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P475HCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P562HCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Resistor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Resistor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Resistor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve">490-1683-6-ND </t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve">490-1662-1-ND </t>
-  </si>
-  <si>
-    <t>490-1615-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">399-1153-1-ND </t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>490-3905-1-ND</t>
-  </si>
-  <si>
-    <t>490-3905-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>490-3905-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>490-3905-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>718-1313-1-ND</t>
-  </si>
-  <si>
-    <t>Tantalum Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Tantalum Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Tantalum Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>3528</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>3528</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>3528</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>478-8115-1-ND</t>
-  </si>
-  <si>
-    <t>478-8115-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Tantalum Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Tantalum Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2012</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve">490-1691-1-ND </t>
+    <t>SC1313-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SW426-ND </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SER4107CT-ND</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -988,7 +996,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,6 +1176,13 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1636,7 +1651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1680,6 +1695,9 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2047,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D142"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="M139" sqref="M139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2086,13 +2104,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -2104,13 +2122,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -2122,13 +2140,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2140,13 +2158,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -2158,13 +2176,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -2176,13 +2194,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -2194,13 +2212,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -2212,13 +2230,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -2230,13 +2248,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2248,13 +2266,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -2266,13 +2284,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -2284,13 +2302,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -2302,13 +2320,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -2320,13 +2338,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -2338,13 +2356,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -2356,13 +2374,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -2374,13 +2392,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -2392,13 +2410,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -2410,13 +2428,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -2428,13 +2446,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -2446,13 +2464,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -2464,13 +2482,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -2482,13 +2500,13 @@
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -2500,13 +2518,13 @@
         <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -2518,13 +2536,13 @@
         <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -2536,13 +2554,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -2554,13 +2572,13 @@
         <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -2572,13 +2590,13 @@
         <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -2590,13 +2608,13 @@
         <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -2608,13 +2626,13 @@
         <v>15</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -2626,13 +2644,13 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -2644,13 +2662,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -2662,13 +2680,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -2680,13 +2698,13 @@
         <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>264</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -2698,13 +2716,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -2716,13 +2734,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F37" s="1"/>
     </row>
@@ -2734,13 +2752,13 @@
         <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F38" s="1"/>
     </row>
@@ -2752,13 +2770,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -2770,13 +2788,13 @@
         <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F40" s="1"/>
     </row>
@@ -2788,13 +2806,13 @@
         <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F41" s="1"/>
     </row>
@@ -2806,13 +2824,13 @@
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F42" s="1"/>
     </row>
@@ -2824,13 +2842,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -2842,13 +2860,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F44" s="1"/>
     </row>
@@ -2860,13 +2878,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F45" s="1"/>
     </row>
@@ -2878,13 +2896,13 @@
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F46" s="1"/>
     </row>
@@ -2896,13 +2914,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F47" s="1"/>
     </row>
@@ -2914,13 +2932,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F48" s="1"/>
     </row>
@@ -2932,13 +2950,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -2950,13 +2968,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F50" s="1"/>
     </row>
@@ -2968,13 +2986,13 @@
         <v>6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F51" s="1"/>
     </row>
@@ -2986,13 +3004,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F52" s="1"/>
     </row>
@@ -3004,13 +3022,13 @@
         <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F53" s="1"/>
     </row>
@@ -3022,13 +3040,13 @@
         <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F54" s="1"/>
     </row>
@@ -3040,13 +3058,13 @@
         <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -3058,13 +3076,13 @@
         <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -3076,13 +3094,13 @@
         <v>6</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F57" s="1"/>
     </row>
@@ -3094,13 +3112,13 @@
         <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -3112,13 +3130,13 @@
         <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -3130,13 +3148,13 @@
         <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F60" s="1"/>
     </row>
@@ -3148,13 +3166,13 @@
         <v>15</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -3166,13 +3184,13 @@
         <v>31</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -3184,13 +3202,13 @@
         <v>31</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F63" s="1"/>
     </row>
@@ -3202,13 +3220,13 @@
         <v>31</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F64" s="1"/>
     </row>
@@ -3220,13 +3238,13 @@
         <v>31</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F65" s="1"/>
     </row>
@@ -3235,16 +3253,16 @@
         <v>74</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -3253,195 +3271,179 @@
         <v>75</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="3" t="s">
-        <v>187</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -3449,17 +3451,17 @@
         <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -3467,17 +3469,17 @@
         <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -3485,16 +3487,16 @@
         <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="F79" s="1"/>
     </row>
@@ -3503,16 +3505,16 @@
         <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F80" s="1"/>
     </row>
@@ -3521,16 +3523,16 @@
         <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F81" s="1"/>
     </row>
@@ -3539,16 +3541,16 @@
         <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F82" s="1"/>
     </row>
@@ -3557,16 +3559,16 @@
         <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C83" s="2">
         <v>3216</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F83" s="1"/>
     </row>
@@ -3575,16 +3577,16 @@
         <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C84" s="2">
         <v>3216</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F84" s="1"/>
     </row>
@@ -3596,13 +3598,13 @@
         <v>94</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F85" s="1"/>
     </row>
@@ -3614,13 +3616,13 @@
         <v>562</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F86" s="1"/>
     </row>
@@ -3632,13 +3634,13 @@
         <v>97</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F87" s="1"/>
     </row>
@@ -3650,13 +3652,13 @@
         <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F88" s="1"/>
     </row>
@@ -3668,13 +3670,13 @@
         <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F89" s="1"/>
     </row>
@@ -3686,13 +3688,13 @@
         <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F90" s="1"/>
     </row>
@@ -3704,13 +3706,13 @@
         <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F91" s="1"/>
     </row>
@@ -3722,13 +3724,13 @@
         <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F92" s="1"/>
     </row>
@@ -3740,13 +3742,13 @@
         <v>101</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F93" s="1"/>
     </row>
@@ -3758,13 +3760,13 @@
         <v>108</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F94" s="1"/>
     </row>
@@ -3776,13 +3778,13 @@
         <v>108</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F95" s="1"/>
     </row>
@@ -3794,13 +3796,13 @@
         <v>111</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F96" s="1"/>
     </row>
@@ -3812,13 +3814,13 @@
         <v>475</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F97" s="1"/>
     </row>
@@ -3830,13 +3832,13 @@
         <v>101</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F98" s="1"/>
     </row>
@@ -3848,13 +3850,13 @@
         <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F99" s="1"/>
     </row>
@@ -3866,13 +3868,13 @@
         <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F100" s="1"/>
     </row>
@@ -3884,13 +3886,13 @@
         <v>108</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F101" s="1"/>
     </row>
@@ -3902,13 +3904,13 @@
         <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F102" s="1"/>
     </row>
@@ -3920,13 +3922,13 @@
         <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F103" s="1"/>
     </row>
@@ -3938,13 +3940,13 @@
         <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F104" s="1"/>
     </row>
@@ -3956,13 +3958,13 @@
         <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F105" s="1"/>
     </row>
@@ -3974,13 +3976,13 @@
         <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F106" s="1"/>
     </row>
@@ -3992,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F107" s="1"/>
     </row>
@@ -4010,13 +4012,13 @@
         <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F108" s="1"/>
     </row>
@@ -4028,13 +4030,13 @@
         <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F109" s="1"/>
     </row>
@@ -4046,13 +4048,13 @@
         <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F110" s="1"/>
     </row>
@@ -4064,13 +4066,13 @@
         <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F111" s="1"/>
     </row>
@@ -4082,13 +4084,13 @@
         <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F112" s="1"/>
     </row>
@@ -4100,13 +4102,13 @@
         <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F113" s="1"/>
     </row>
@@ -4118,13 +4120,13 @@
         <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F114" s="1"/>
     </row>
@@ -4136,13 +4138,13 @@
         <v>108</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F115" s="1"/>
     </row>
@@ -4154,13 +4156,13 @@
         <v>111</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F116" s="1"/>
     </row>
@@ -4172,13 +4174,13 @@
         <v>475</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F117" s="1"/>
     </row>
@@ -4190,13 +4192,13 @@
         <v>101</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F118" s="1"/>
     </row>
@@ -4208,13 +4210,13 @@
         <v>108</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F119" s="1"/>
     </row>
@@ -4226,13 +4228,13 @@
         <v>108</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F120" s="1"/>
     </row>
@@ -4244,13 +4246,13 @@
         <v>108</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F121" s="1"/>
     </row>
@@ -4262,13 +4264,13 @@
         <v>108</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" s="1"/>
     </row>
@@ -4280,13 +4282,13 @@
         <v>99</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F123" s="1"/>
     </row>
@@ -4298,13 +4300,13 @@
         <v>99</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F124" s="1"/>
     </row>
@@ -4316,13 +4318,13 @@
         <v>99</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F125" s="1"/>
     </row>
@@ -4334,13 +4336,13 @@
         <v>99</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F126" s="1"/>
     </row>
@@ -4352,13 +4354,13 @@
         <v>562</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F127" s="1"/>
     </row>
@@ -4378,9 +4380,7 @@
       <c r="E128" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>187</v>
-      </c>
+      <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
@@ -4396,28 +4396,26 @@
         <v>166</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="F129" s="4"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
@@ -4425,17 +4423,17 @@
         <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
@@ -4454,9 +4452,7 @@
       <c r="E132" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>187</v>
-      </c>
+      <c r="F132" s="4"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
@@ -4474,9 +4470,7 @@
       <c r="E133" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>187</v>
-      </c>
+      <c r="F133" s="4"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
@@ -4519,16 +4513,16 @@
         <v>152</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D136" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E136" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="F136" s="1"/>
     </row>
@@ -4537,16 +4531,16 @@
         <v>154</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="D137" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="E137" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="F137" s="1"/>
     </row>
@@ -4555,16 +4549,16 @@
         <v>155</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D138" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E138" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="F138" s="1"/>
     </row>
@@ -4573,16 +4567,16 @@
         <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D139" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D139" s="9" t="s">
-        <v>199</v>
-      </c>
       <c r="E139" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F139" s="1"/>
     </row>
@@ -4591,20 +4585,18 @@
         <v>157</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>187</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
@@ -4614,17 +4606,15 @@
         <v>159</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="5" t="s">
@@ -4637,10 +4627,10 @@
         <v>177</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>178</v>
+        <v>286</v>
       </c>
       <c r="F142" s="5"/>
     </row>

--- a/bom_partlist/sigma_mix_bom.xlsx
+++ b/bom_partlist/sigma_mix_bom.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shun\Desktop\CurrentProjects\SigmaMIX\SigmaMIX_Hardware\bom_partlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shun\eagle\FXF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="partslist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="285">
   <si>
     <t>Part</t>
   </si>
@@ -567,6 +567,10 @@
   </si>
   <si>
     <t>SMD</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>535-10902-1-ND</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -690,6 +694,10 @@
     <t>CP-1420-ND</t>
   </si>
   <si>
+    <t>CP-1420-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>CP-1419-ND</t>
   </si>
   <si>
@@ -973,22 +981,6 @@
   </si>
   <si>
     <t xml:space="preserve">490-1691-1-ND </t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CP-1420-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SC1313-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SW426-ND </t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SER4107CT-ND</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -996,7 +988,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,13 +1168,6 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1651,7 +1636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1695,9 +1680,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2065,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="M139" sqref="M139"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2104,13 +2086,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -2122,13 +2104,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -2140,13 +2122,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2158,13 +2140,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -2176,13 +2158,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -2194,13 +2176,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -2212,13 +2194,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -2230,13 +2212,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -2248,13 +2230,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2266,13 +2248,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -2284,13 +2266,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -2302,13 +2284,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -2320,13 +2302,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -2338,13 +2320,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -2356,13 +2338,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>277</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -2374,13 +2356,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -2392,13 +2374,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -2410,13 +2392,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -2428,13 +2410,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -2446,13 +2428,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -2464,13 +2446,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -2482,13 +2464,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -2500,13 +2482,13 @@
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -2518,13 +2500,13 @@
         <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -2536,13 +2518,13 @@
         <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -2554,13 +2536,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -2572,13 +2554,13 @@
         <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -2590,13 +2572,13 @@
         <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -2608,13 +2590,13 @@
         <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -2626,13 +2608,13 @@
         <v>15</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -2644,13 +2626,13 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -2662,13 +2644,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -2680,13 +2662,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -2698,13 +2680,13 @@
         <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -2716,13 +2698,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -2734,13 +2716,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F37" s="1"/>
     </row>
@@ -2752,13 +2734,13 @@
         <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F38" s="1"/>
     </row>
@@ -2770,13 +2752,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -2788,13 +2770,13 @@
         <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F40" s="1"/>
     </row>
@@ -2806,13 +2788,13 @@
         <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F41" s="1"/>
     </row>
@@ -2824,13 +2806,13 @@
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F42" s="1"/>
     </row>
@@ -2842,13 +2824,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -2860,13 +2842,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F44" s="1"/>
     </row>
@@ -2878,13 +2860,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="F45" s="1"/>
     </row>
@@ -2896,13 +2878,13 @@
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>277</v>
       </c>
       <c r="F46" s="1"/>
     </row>
@@ -2914,13 +2896,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F47" s="1"/>
     </row>
@@ -2932,13 +2914,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F48" s="1"/>
     </row>
@@ -2950,13 +2932,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -2968,13 +2950,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F50" s="1"/>
     </row>
@@ -2986,13 +2968,13 @@
         <v>6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F51" s="1"/>
     </row>
@@ -3004,13 +2986,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F52" s="1"/>
     </row>
@@ -3022,13 +3004,13 @@
         <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F53" s="1"/>
     </row>
@@ -3040,13 +3022,13 @@
         <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D54" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="F54" s="1"/>
     </row>
@@ -3058,13 +3040,13 @@
         <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -3076,13 +3058,13 @@
         <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -3094,13 +3076,13 @@
         <v>6</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F57" s="1"/>
     </row>
@@ -3112,13 +3094,13 @@
         <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -3130,13 +3112,13 @@
         <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -3148,13 +3130,13 @@
         <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D60" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="F60" s="1"/>
     </row>
@@ -3166,13 +3148,13 @@
         <v>15</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -3184,13 +3166,13 @@
         <v>31</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -3202,13 +3184,13 @@
         <v>31</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F63" s="1"/>
     </row>
@@ -3220,13 +3202,13 @@
         <v>31</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F64" s="1"/>
     </row>
@@ -3238,13 +3220,13 @@
         <v>31</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F65" s="1"/>
     </row>
@@ -3253,16 +3235,16 @@
         <v>74</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -3271,179 +3253,195 @@
         <v>75</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="F67" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F68" s="4"/>
+        <v>207</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D69" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="F69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D70" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="F70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F71" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F72" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="F73" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F74" s="4"/>
+        <v>208</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F75" s="4"/>
+        <v>207</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -3451,17 +3449,17 @@
         <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -3469,17 +3467,17 @@
         <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -3487,16 +3485,16 @@
         <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>230</v>
-      </c>
       <c r="E79" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F79" s="1"/>
     </row>
@@ -3505,16 +3503,16 @@
         <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D80" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="F80" s="1"/>
     </row>
@@ -3523,16 +3521,16 @@
         <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>231</v>
-      </c>
       <c r="E81" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F81" s="1"/>
     </row>
@@ -3541,16 +3539,16 @@
         <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="F82" s="1"/>
     </row>
@@ -3559,16 +3557,16 @@
         <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C83" s="2">
         <v>3216</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F83" s="1"/>
     </row>
@@ -3577,16 +3575,16 @@
         <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C84" s="2">
         <v>3216</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F84" s="1"/>
     </row>
@@ -3598,13 +3596,13 @@
         <v>94</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F85" s="1"/>
     </row>
@@ -3616,13 +3614,13 @@
         <v>562</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D86" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E86" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="F86" s="1"/>
     </row>
@@ -3634,13 +3632,13 @@
         <v>97</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F87" s="1"/>
     </row>
@@ -3652,13 +3650,13 @@
         <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F88" s="1"/>
     </row>
@@ -3670,13 +3668,13 @@
         <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F89" s="1"/>
     </row>
@@ -3688,13 +3686,13 @@
         <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F90" s="1"/>
     </row>
@@ -3706,13 +3704,13 @@
         <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F91" s="1"/>
     </row>
@@ -3724,13 +3722,13 @@
         <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F92" s="1"/>
     </row>
@@ -3742,13 +3740,13 @@
         <v>101</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F93" s="1"/>
     </row>
@@ -3760,13 +3758,13 @@
         <v>108</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F94" s="1"/>
     </row>
@@ -3778,13 +3776,13 @@
         <v>108</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F95" s="1"/>
     </row>
@@ -3796,13 +3794,13 @@
         <v>111</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F96" s="1"/>
     </row>
@@ -3814,13 +3812,13 @@
         <v>475</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F97" s="1"/>
     </row>
@@ -3832,13 +3830,13 @@
         <v>101</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F98" s="1"/>
     </row>
@@ -3850,13 +3848,13 @@
         <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F99" s="1"/>
     </row>
@@ -3868,13 +3866,13 @@
         <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F100" s="1"/>
     </row>
@@ -3886,13 +3884,13 @@
         <v>108</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F101" s="1"/>
     </row>
@@ -3904,13 +3902,13 @@
         <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F102" s="1"/>
     </row>
@@ -3922,13 +3920,13 @@
         <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F103" s="1"/>
     </row>
@@ -3940,13 +3938,13 @@
         <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F104" s="1"/>
     </row>
@@ -3958,13 +3956,13 @@
         <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F105" s="1"/>
     </row>
@@ -3976,13 +3974,13 @@
         <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F106" s="1"/>
     </row>
@@ -3994,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F107" s="1"/>
     </row>
@@ -4012,13 +4010,13 @@
         <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F108" s="1"/>
     </row>
@@ -4030,13 +4028,13 @@
         <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F109" s="1"/>
     </row>
@@ -4048,13 +4046,13 @@
         <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F110" s="1"/>
     </row>
@@ -4066,13 +4064,13 @@
         <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F111" s="1"/>
     </row>
@@ -4084,13 +4082,13 @@
         <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F112" s="1"/>
     </row>
@@ -4102,13 +4100,13 @@
         <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F113" s="1"/>
     </row>
@@ -4120,13 +4118,13 @@
         <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F114" s="1"/>
     </row>
@@ -4138,13 +4136,13 @@
         <v>108</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F115" s="1"/>
     </row>
@@ -4156,13 +4154,13 @@
         <v>111</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F116" s="1"/>
     </row>
@@ -4174,13 +4172,13 @@
         <v>475</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F117" s="1"/>
     </row>
@@ -4192,13 +4190,13 @@
         <v>101</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F118" s="1"/>
     </row>
@@ -4210,13 +4208,13 @@
         <v>108</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F119" s="1"/>
     </row>
@@ -4228,13 +4226,13 @@
         <v>108</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F120" s="1"/>
     </row>
@@ -4246,13 +4244,13 @@
         <v>108</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F121" s="1"/>
     </row>
@@ -4264,13 +4262,13 @@
         <v>108</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F122" s="1"/>
     </row>
@@ -4282,13 +4280,13 @@
         <v>99</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F123" s="1"/>
     </row>
@@ -4300,13 +4298,13 @@
         <v>99</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F124" s="1"/>
     </row>
@@ -4318,13 +4316,13 @@
         <v>99</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F125" s="1"/>
     </row>
@@ -4336,13 +4334,13 @@
         <v>99</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F126" s="1"/>
     </row>
@@ -4354,13 +4352,13 @@
         <v>562</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F127" s="1"/>
     </row>
@@ -4380,7 +4378,9 @@
       <c r="E128" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F128" s="4"/>
+      <c r="F128" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
@@ -4396,26 +4396,28 @@
         <v>166</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="F129" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
@@ -4423,17 +4425,17 @@
         <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
@@ -4452,7 +4454,9 @@
       <c r="E132" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F132" s="4"/>
+      <c r="F132" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
@@ -4470,7 +4474,9 @@
       <c r="E133" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F133" s="4"/>
+      <c r="F133" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
@@ -4513,16 +4519,16 @@
         <v>152</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F136" s="1"/>
     </row>
@@ -4531,16 +4537,16 @@
         <v>154</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F137" s="1"/>
     </row>
@@ -4549,16 +4555,16 @@
         <v>155</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F138" s="1"/>
     </row>
@@ -4567,16 +4573,16 @@
         <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F139" s="1"/>
     </row>
@@ -4585,18 +4591,20 @@
         <v>157</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F140" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
@@ -4606,15 +4614,17 @@
         <v>159</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F141" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="5" t="s">
@@ -4627,10 +4637,10 @@
         <v>177</v>
       </c>
       <c r="D142" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E142" s="14" t="s">
         <v>178</v>
-      </c>
-      <c r="E142" s="14" t="s">
-        <v>286</v>
       </c>
       <c r="F142" s="5"/>
     </row>

--- a/bom_partlist/sigma_mix_bom.xlsx
+++ b/bom_partlist/sigma_mix_bom.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shun\eagle\FXF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shun\Desktop\CurrentProjects\SigmaMIX\SigmaMIX_Hardware\bom_partlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -570,10 +570,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>535-10902-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Crystal Oscillator</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -981,6 +977,10 @@
   </si>
   <si>
     <t xml:space="preserve">490-1691-1-ND </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SER4107CT-ND</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2047,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D142"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2086,13 +2086,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -2104,13 +2104,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -2122,13 +2122,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2140,13 +2140,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -2158,13 +2158,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -2176,13 +2176,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -2194,13 +2194,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -2212,13 +2212,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -2230,13 +2230,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2248,13 +2248,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -2266,13 +2266,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -2284,13 +2284,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -2302,13 +2302,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -2320,13 +2320,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -2338,13 +2338,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -2356,13 +2356,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -2374,13 +2374,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -2392,13 +2392,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -2410,13 +2410,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -2428,13 +2428,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -2446,13 +2446,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -2464,13 +2464,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -2482,13 +2482,13 @@
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -2500,13 +2500,13 @@
         <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -2518,13 +2518,13 @@
         <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -2536,13 +2536,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -2554,13 +2554,13 @@
         <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -2572,13 +2572,13 @@
         <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -2590,13 +2590,13 @@
         <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -2608,13 +2608,13 @@
         <v>15</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -2626,13 +2626,13 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -2644,13 +2644,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -2662,13 +2662,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -2680,13 +2680,13 @@
         <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -2698,13 +2698,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -2716,13 +2716,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F37" s="1"/>
     </row>
@@ -2734,13 +2734,13 @@
         <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F38" s="1"/>
     </row>
@@ -2752,13 +2752,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -2770,13 +2770,13 @@
         <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F40" s="1"/>
     </row>
@@ -2788,13 +2788,13 @@
         <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F41" s="1"/>
     </row>
@@ -2806,13 +2806,13 @@
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F42" s="1"/>
     </row>
@@ -2824,13 +2824,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -2842,13 +2842,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F44" s="1"/>
     </row>
@@ -2860,13 +2860,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F45" s="1"/>
     </row>
@@ -2878,13 +2878,13 @@
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F46" s="1"/>
     </row>
@@ -2896,13 +2896,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F47" s="1"/>
     </row>
@@ -2914,13 +2914,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F48" s="1"/>
     </row>
@@ -2932,13 +2932,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -2950,13 +2950,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F50" s="1"/>
     </row>
@@ -2968,13 +2968,13 @@
         <v>6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F51" s="1"/>
     </row>
@@ -2986,13 +2986,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F52" s="1"/>
     </row>
@@ -3004,13 +3004,13 @@
         <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F53" s="1"/>
     </row>
@@ -3022,13 +3022,13 @@
         <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F54" s="1"/>
     </row>
@@ -3040,13 +3040,13 @@
         <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -3058,13 +3058,13 @@
         <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -3076,13 +3076,13 @@
         <v>6</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F57" s="1"/>
     </row>
@@ -3094,13 +3094,13 @@
         <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -3112,13 +3112,13 @@
         <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -3130,13 +3130,13 @@
         <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F60" s="1"/>
     </row>
@@ -3148,13 +3148,13 @@
         <v>15</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -3166,13 +3166,13 @@
         <v>31</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -3184,13 +3184,13 @@
         <v>31</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F63" s="1"/>
     </row>
@@ -3202,13 +3202,13 @@
         <v>31</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F64" s="1"/>
     </row>
@@ -3220,13 +3220,13 @@
         <v>31</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F65" s="1"/>
     </row>
@@ -3235,16 +3235,16 @@
         <v>74</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="D66" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -3253,17 +3253,17 @@
         <v>75</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -3271,19 +3271,19 @@
         <v>76</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -3291,19 +3291,19 @@
         <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -3311,19 +3311,19 @@
         <v>78</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -3331,19 +3331,19 @@
         <v>79</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -3351,19 +3351,19 @@
         <v>80</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
@@ -3371,19 +3371,19 @@
         <v>81</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
@@ -3391,19 +3391,19 @@
         <v>82</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -3411,19 +3411,19 @@
         <v>83</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -3431,17 +3431,17 @@
         <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -3449,17 +3449,17 @@
         <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -3467,17 +3467,17 @@
         <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -3485,16 +3485,16 @@
         <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F79" s="1"/>
     </row>
@@ -3503,16 +3503,16 @@
         <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="F80" s="1"/>
     </row>
@@ -3521,16 +3521,16 @@
         <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="F81" s="1"/>
     </row>
@@ -3539,16 +3539,16 @@
         <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="F82" s="1"/>
     </row>
@@ -3557,16 +3557,16 @@
         <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C83" s="2">
         <v>3216</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F83" s="1"/>
     </row>
@@ -3575,16 +3575,16 @@
         <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C84" s="2">
         <v>3216</v>
       </c>
       <c r="D84" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="F84" s="1"/>
     </row>
@@ -3596,13 +3596,13 @@
         <v>94</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F85" s="1"/>
     </row>
@@ -3614,13 +3614,13 @@
         <v>562</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F86" s="1"/>
     </row>
@@ -3632,13 +3632,13 @@
         <v>97</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F87" s="1"/>
     </row>
@@ -3650,13 +3650,13 @@
         <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F88" s="1"/>
     </row>
@@ -3668,13 +3668,13 @@
         <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F89" s="1"/>
     </row>
@@ -3686,13 +3686,13 @@
         <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F90" s="1"/>
     </row>
@@ -3704,13 +3704,13 @@
         <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F91" s="1"/>
     </row>
@@ -3722,13 +3722,13 @@
         <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F92" s="1"/>
     </row>
@@ -3740,13 +3740,13 @@
         <v>101</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F93" s="1"/>
     </row>
@@ -3758,13 +3758,13 @@
         <v>108</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F94" s="1"/>
     </row>
@@ -3776,13 +3776,13 @@
         <v>108</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F95" s="1"/>
     </row>
@@ -3794,13 +3794,13 @@
         <v>111</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F96" s="1"/>
     </row>
@@ -3812,13 +3812,13 @@
         <v>475</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F97" s="1"/>
     </row>
@@ -3830,13 +3830,13 @@
         <v>101</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F98" s="1"/>
     </row>
@@ -3848,13 +3848,13 @@
         <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F99" s="1"/>
     </row>
@@ -3866,13 +3866,13 @@
         <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F100" s="1"/>
     </row>
@@ -3884,13 +3884,13 @@
         <v>108</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F101" s="1"/>
     </row>
@@ -3902,13 +3902,13 @@
         <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F102" s="1"/>
     </row>
@@ -3920,13 +3920,13 @@
         <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F103" s="1"/>
     </row>
@@ -3938,13 +3938,13 @@
         <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F104" s="1"/>
     </row>
@@ -3956,13 +3956,13 @@
         <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F105" s="1"/>
     </row>
@@ -3974,13 +3974,13 @@
         <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F106" s="1"/>
     </row>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F107" s="1"/>
     </row>
@@ -4010,13 +4010,13 @@
         <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F108" s="1"/>
     </row>
@@ -4028,13 +4028,13 @@
         <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F109" s="1"/>
     </row>
@@ -4046,13 +4046,13 @@
         <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F110" s="1"/>
     </row>
@@ -4064,13 +4064,13 @@
         <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F111" s="1"/>
     </row>
@@ -4082,13 +4082,13 @@
         <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F112" s="1"/>
     </row>
@@ -4100,13 +4100,13 @@
         <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F113" s="1"/>
     </row>
@@ -4118,13 +4118,13 @@
         <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F114" s="1"/>
     </row>
@@ -4136,13 +4136,13 @@
         <v>108</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F115" s="1"/>
     </row>
@@ -4154,13 +4154,13 @@
         <v>111</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F116" s="1"/>
     </row>
@@ -4172,13 +4172,13 @@
         <v>475</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F117" s="1"/>
     </row>
@@ -4190,13 +4190,13 @@
         <v>101</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F118" s="1"/>
     </row>
@@ -4208,13 +4208,13 @@
         <v>108</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F119" s="1"/>
     </row>
@@ -4226,13 +4226,13 @@
         <v>108</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F120" s="1"/>
     </row>
@@ -4244,13 +4244,13 @@
         <v>108</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F121" s="1"/>
     </row>
@@ -4262,13 +4262,13 @@
         <v>108</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F122" s="1"/>
     </row>
@@ -4280,13 +4280,13 @@
         <v>99</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F123" s="1"/>
     </row>
@@ -4298,13 +4298,13 @@
         <v>99</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F124" s="1"/>
     </row>
@@ -4316,13 +4316,13 @@
         <v>99</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F125" s="1"/>
     </row>
@@ -4334,13 +4334,13 @@
         <v>99</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F126" s="1"/>
     </row>
@@ -4352,13 +4352,13 @@
         <v>562</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F127" s="1"/>
     </row>
@@ -4379,7 +4379,7 @@
         <v>172</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
@@ -4399,7 +4399,7 @@
         <v>172</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
@@ -4407,17 +4407,17 @@
         <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
@@ -4425,17 +4425,17 @@
         <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
@@ -4455,7 +4455,7 @@
         <v>168</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
@@ -4475,7 +4475,7 @@
         <v>169</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
@@ -4519,16 +4519,16 @@
         <v>152</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D136" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E136" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="F136" s="1"/>
     </row>
@@ -4537,16 +4537,16 @@
         <v>154</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="D137" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="E137" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="F137" s="1"/>
     </row>
@@ -4555,16 +4555,16 @@
         <v>155</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D138" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E138" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="F138" s="1"/>
     </row>
@@ -4573,16 +4573,16 @@
         <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D139" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D139" s="9" t="s">
-        <v>199</v>
-      </c>
       <c r="E139" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F139" s="1"/>
     </row>
@@ -4591,19 +4591,19 @@
         <v>157</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
@@ -4614,16 +4614,16 @@
         <v>159</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
@@ -4637,10 +4637,10 @@
         <v>177</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="F142" s="5"/>
     </row>
